--- a/biology/Médecine/Os_long/Os_long.xlsx
+++ b/biology/Médecine/Os_long/Os_long.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les os longs sont des os qui sont plus longs que larges.
 </t>
@@ -511,15 +523,11 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les os longs sont constitués d'un corps ou diaphyse et de deux extrémités ou épiphyses.
-Diaphyse
-La diaphyse est généralement prismatique triangulaire recouvert d'une membrane extérieure de tissu conjonctif : le périoste.
-Elle est constituée d'une gaine d'os cortical[1] qui limite une cavité formant le canal médullaire remplie de moelle osseuse. La cavité médullaire est recouverte d'une mince membrane : l'endoste.
-Épiphyse
-Les épiphyses sont plus ou moins renflées et portent des surfaces articulaires recouvertes de cartilages ou à défaut de périoste.
-Les épiphyses sont constituées d'os compact enveloppant de l'os spongieux dont les aréoles communiquent avec le canal médullaire et sont remplies de moelle osseuse.
 </t>
         </is>
       </c>
@@ -545,10 +553,88 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Structure</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Diaphyse</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La diaphyse est généralement prismatique triangulaire recouvert d'une membrane extérieure de tissu conjonctif : le périoste.
+Elle est constituée d'une gaine d'os cortical qui limite une cavité formant le canal médullaire remplie de moelle osseuse. La cavité médullaire est recouverte d'une mince membrane : l'endoste.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Os_long</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Os_long</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Structure</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Épiphyse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les épiphyses sont plus ou moins renflées et portent des surfaces articulaires recouvertes de cartilages ou à défaut de périoste.
+Les épiphyses sont constituées d'os compact enveloppant de l'os spongieux dont les aréoles communiquent avec le canal médullaire et sont remplies de moelle osseuse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Os_long</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Os_long</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Os longs humains</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Le squelette humain possèdent les os longs suivants de haut en bas :
 les clavicules,
@@ -565,31 +651,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Os_long</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Os_long</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Anatomie fonctionnelle</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les os longs, en particulier le fémur et le tibia, sont en général soumis à de forte charge et leur structure en travée osseuses est adaptée à cette fonction.
 Les os longs de la jambe représentent chez l'humain près de la moitié de sa taille adulte en complément des vertèbres et du crâne.
@@ -598,31 +686,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Os_long</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Os_long</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Embryologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Les os longs sont des os endochondraux à l'exception de la clavicule qui possède une partie endochondrale et une partie membraneuse.
 La croissance longitudinale des os longs se réalise grâce aux cartilages épiphysaires intercalés entre la diaphyse et les épiphyses. Ces cartilages sont complétement ossifiés lorsque la croissance est terminée.
@@ -631,35 +721,37 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Os_long</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Os_long</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe des maladies congénitales spécifiques des os longs comme la maladie des exostoses multiples provocant des déformations osseuses au niveau des épiphyses.
 Elles peuvent également provoquer des défauts de croissance des os longs.
-Les os longs peuvent être utilisés pour compenser des défauts de taille d'un individu par la technique de la distraction osseuse[2].
+Les os longs peuvent être utilisés pour compenser des défauts de taille d'un individu par la technique de la distraction osseuse.
 </t>
         </is>
       </c>
